--- a/tổng hợp module 4.xlsx
+++ b/tổng hợp module 4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Stt bài</t>
   </si>
@@ -54,12 +54,166 @@
     compile group: 'org.springframework', name: 'spring-webmvc', version: '4.3.17.RELEASE'
     compile group: 'org.slf4j', name: 'slf4j-api', version: '1.7.25'</t>
   </si>
+  <si>
+    <t>thư viện spring - form</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="spring" uri="http://www.springframework.org/tags"%&gt;
+&lt;%@ taglib prefix="form" uri="http://www.springframework.org/tags/form"%&gt;</t>
+  </si>
+  <si>
+    <t>dùng cho jsp</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>AppCofiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package com.codegym.config;
+import org.springframework.beans.BeansException;
+import org.springframework.context.ApplicationContext;
+import org.springframework.context.ApplicationContextAware;
+import org.springframework.context.annotation.Bean;
+import org.springframework.context.annotation.ComponentScan;
+import org.springframework.context.annotation.Configuration;
+import org.springframework.web.servlet.ViewResolver;
+import org.springframework.web.servlet.config.annotation.EnableWebMvc;
+import org.springframework.web.servlet.config.annotation.WebMvcConfigurerAdapter;
+import org.springframework.web.servlet.view.InternalResourceViewResolver;
+@Configuration
+@EnableWebMvc
+@ComponentScan("com.codegym.controller")
+public class AppConfiguration extends WebMvcConfigurerAdapter implements ApplicationContextAware {
+    private ApplicationContext applicationContext;
+    @Override
+    public void setApplicationContext(ApplicationContext applicationContext) throws BeansException {
+        this.applicationContext = applicationContext;
+    }
+    @Bean
+    public ViewResolver interrnalResourceViewResolver() {
+        InternalResourceViewResolver viewResolver = new InternalResourceViewResolver();
+        viewResolver.setPrefix("/WEB-INF/views/");
+        viewResolver.setSuffix(".jsp");
+        viewResolver.setApplicationContext(applicationContext);
+        return viewResolver;
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>AppInitializer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package com.codegym.config;
+import org.springframework.web.servlet.support.AbstractAnnotationConfigDispatcherServletInitializer;
+public class AppInitializer extends AbstractAnnotationConfigDispatcherServletInitializer {
+    @Override
+    protected Class&lt;?&gt;[] getRootConfigClasses() {
+        return new Class[]{AppConfiguration.class};
+    }
+    @Override
+    protected Class&lt;?&gt;[] getServletConfigClasses() {
+        return new Class[0];
+    }
+    @Override
+    protected String[] getServletMappings() {
+        return new String[]{"/"};
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>config thymeleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package com.codegym.config;
+import org.springframework.beans.BeansException;
+import org.springframework.context.ApplicationContext;
+import org.springframework.context.ApplicationContextAware;
+import org.springframework.context.annotation.Bean;
+import org.springframework.context.annotation.ComponentScan;
+import org.springframework.context.annotation.Configuration;
+import org.springframework.web.servlet.ViewResolver;
+import org.springframework.web.servlet.config.annotation.EnableWebMvc;
+import org.springframework.web.servlet.config.annotation.WebMvcConfigurerAdapter;
+import org.springframework.web.servlet.view.InternalResourceViewResolver;
+import org.thymeleaf.TemplateEngine;
+import org.thymeleaf.spring4.SpringTemplateEngine;
+import org.thymeleaf.spring4.templateresolver.SpringResourceTemplateResolver;
+import org.thymeleaf.spring4.view.ThymeleafViewResolver;
+import org.thymeleaf.templatemode.TemplateMode;
+@Configuration
+@EnableWebMvc
+@ComponentScan("com.codegym.controller")
+public class AppConfiguration extends WebMvcConfigurerAdapter implements ApplicationContextAware {
+    private ApplicationContext applicationContext;
+    @Override
+    public void setApplicationContext(ApplicationContext applicationContext) throws BeansException {
+        this.applicationContext = applicationContext;
+    }
+    //Thymeleaf Configuration
+    @Bean
+    public SpringResourceTemplateResolver templateResolver() {
+        SpringResourceTemplateResolver templateResolver = new SpringResourceTemplateResolver();
+        templateResolver.setApplicationContext(applicationContext);
+        templateResolver.setPrefix("/WEB-INF/views/");
+        templateResolver.setSuffix(".html");
+        templateResolver.setTemplateMode(TemplateMode.HTML);
+        templateResolver.setCharacterEncoding("UTF-8");
+        return templateResolver;
+    }
+    @Bean
+    public TemplateEngine templateEngine() {
+        TemplateEngine templateEngine = new SpringTemplateEngine();
+        templateEngine.setTemplateResolver(templateResolver());
+        return templateEngine;
+    }
+    @Bean
+    public ThymeleafViewResolver viewResolver() {
+        ThymeleafViewResolver viewResolver = new ThymeleafViewResolver();
+        viewResolver.setTemplateEngine(templateEngine());
+        viewResolver.setCharacterEncoding("UTF-8");
+        return viewResolver;
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tương đương name = ...; id =…; </t>
+  </si>
+  <si>
+    <t>thuộc tính path ( fiel - trong thymeleaf)</t>
+  </si>
+  <si>
+    <t>"@"modelAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bind giá trị từ kết quả của 1 hàm hoặc
+ bind giá trị từ 1 tham số </t>
+  </si>
+  <si>
+    <t>Bind kết quả trả về của một method thành model attribute
+@ModelAttribute("customers")
+public Iterable&lt;Customer&gt; getAllCustomers() {
+    return customerService.findAll();
+}</t>
+  </si>
+  <si>
+    <t>Bind tham số của một method thành model attribute
+@PostMapping
+public String submitCustomer(@ModelAttribute("customer") Customer newCustomer) {
+    customerService.save(newCustomer);
+    return "customers/info";
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +226,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF37474F"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF526069"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,11 +280,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +289,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,61 +610,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="210">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="60">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="375">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="409.5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="375">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="120">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>